--- a/Design.xlsx
+++ b/Design.xlsx
@@ -7,16 +7,93 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="ALU" sheetId="1" r:id="rId1"/>
-    <sheet name="数码管" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="数码管" sheetId="2" r:id="rId1"/>
+    <sheet name="ALU" sheetId="1" r:id="rId2"/>
+    <sheet name="寄存器" sheetId="3" r:id="rId3"/>
+    <sheet name="微程序" sheetId="4" r:id="rId4"/>
+    <sheet name="指令集" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="271">
+  <si>
+    <t>十进制</t>
+  </si>
+  <si>
+    <t>输入(逆时针)</t>
+  </si>
+  <si>
+    <t>用除法器对数据除以10取余得个位，在用商继续除以10得十位，以此类推</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>有符号十进制先取绝对值获得符号和被除数</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>无符号显示规则</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>最高位为0则禁用，否则显示数字</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>中间第i位，不为0或i+1位启用则显示数字，否则禁用</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>最低位固定显示数字</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>有符号显示规则(负数负号显示-，正数或0不显示)</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>比无符号多一位用来显示符号</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>次高位不为0，则最高位显示符号，否则禁用</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>中间第i位，若i+1启用，则显示数字，否则输出符号，是否启用看i-1是否为0</t>
+  </si>
+  <si>
+    <t>最低位固定显示数据(最低两位可以固定启用)</t>
+  </si>
   <si>
     <t>操作码</t>
   </si>
@@ -24,6 +101,9 @@
     <t>PSW</t>
   </si>
   <si>
+    <t>0000</t>
+  </si>
+  <si>
     <t>无操作</t>
   </si>
   <si>
@@ -33,6 +113,9 @@
     <t>零标记(运算结果为0或CMP相等为1)</t>
   </si>
   <si>
+    <t>0001</t>
+  </si>
+  <si>
     <t>加法</t>
   </si>
   <si>
@@ -42,6 +125,9 @@
     <t>符号标记(CMP小于为1，大于等于为0)</t>
   </si>
   <si>
+    <t>0010</t>
+  </si>
+  <si>
     <t>减法</t>
   </si>
   <si>
@@ -51,118 +137,700 @@
     <t>中断标记(允许中断为1，禁止中断为0)</t>
   </si>
   <si>
+    <t>0011</t>
+  </si>
+  <si>
     <t>无符号乘法</t>
   </si>
   <si>
+    <t>0100</t>
+  </si>
+  <si>
     <t>有符号乘法</t>
   </si>
   <si>
+    <t>0101</t>
+  </si>
+  <si>
     <t>无符号除法</t>
   </si>
   <si>
+    <t>0110</t>
+  </si>
+  <si>
     <t>有符号除法</t>
   </si>
   <si>
+    <t>0111</t>
+  </si>
+  <si>
     <t>无符号取余</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>有符号取余</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>与</t>
   </si>
   <si>
+    <t>1010</t>
+  </si>
+  <si>
     <t>或</t>
   </si>
   <si>
+    <t>1011</t>
+  </si>
+  <si>
     <t>非</t>
   </si>
   <si>
+    <t>1100</t>
+  </si>
+  <si>
     <t>异或</t>
   </si>
   <si>
+    <t>1101</t>
+  </si>
+  <si>
     <t>无符号比较</t>
   </si>
   <si>
+    <t>1110</t>
+  </si>
+  <si>
     <t>有符号比较</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>状态字设置</t>
   </si>
   <si>
-    <t>十进制</t>
-  </si>
-  <si>
-    <t>输入(逆时针)</t>
-  </si>
-  <si>
-    <t>用除法器对数据除以10取余得个位，在用商继续除以10得十位，以此类推</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>有符号十进制先取绝对值获得符号和被除数</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>无符号显示规则</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>最高位为0则禁用，否则显示数字</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>中间第i位，不为0或i+1位启用则显示数字，否则禁用</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>最低位固定显示数字</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>E0</t>
-  </si>
-  <si>
-    <t>有符号显示规则(负数负号显示-，正数或0不显示)</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>比无符号多一位用来显示符号</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>次高位不为0，则最高位显示符号，否则禁用</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>中间第i位，若i+1启用，则显示数字，否则输出符号，是否启用看i-1是否为0</t>
-  </si>
-  <si>
-    <t>最低位固定显示数据(最低两位可以固定启用)</t>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>全称</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>功能说明</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>通用A</t>
+  </si>
+  <si>
+    <t>程序使用，ALU运算A操作数</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>通用B</t>
+  </si>
+  <si>
+    <t>程序使用，ALU运算B操作数</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>通用C</t>
+  </si>
+  <si>
+    <t>程序使用</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>通用D</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>Code Segment</t>
+  </si>
+  <si>
+    <t>代码段</t>
+  </si>
+  <si>
+    <t>指令区域起始地址</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>Data Segment</t>
+  </si>
+  <si>
+    <t>数据段</t>
+  </si>
+  <si>
+    <t>数据区域起始地址</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>Stack Segment</t>
+  </si>
+  <si>
+    <t>堆栈段</t>
+  </si>
+  <si>
+    <t>堆栈区域起始地址</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>01000</t>
+  </si>
+  <si>
+    <t>Stack Pointer</t>
+  </si>
+  <si>
+    <t>堆栈指针</t>
+  </si>
+  <si>
+    <t>当前堆栈顶位置</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>Memory Segment Register</t>
+  </si>
+  <si>
+    <t>内存段寄存器</t>
+  </si>
+  <si>
+    <t>内存的最终访问地址=MSR&lt;&lt;N+MAR</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>Memory Address Register</t>
+  </si>
+  <si>
+    <t>内存地址寄存器</t>
+  </si>
+  <si>
+    <t>对RAM进行读写时要先将地址写入该寄存器</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>Source Register</t>
+  </si>
+  <si>
+    <t>源操作数寄存器</t>
+  </si>
+  <si>
+    <t>当前指令的源操作数</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>01100</t>
+  </si>
+  <si>
+    <t>Destination Register</t>
+  </si>
+  <si>
+    <t>目的操作数寄存器</t>
+  </si>
+  <si>
+    <t>当前指令的目的操作数</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>01101</t>
+  </si>
+  <si>
+    <t>Instruction Register Low</t>
+  </si>
+  <si>
+    <t>指令寄存器低8位</t>
+  </si>
+  <si>
+    <t>当前正在执行的指令低8位</t>
+  </si>
+  <si>
+    <t>IRH</t>
+  </si>
+  <si>
+    <t>01110</t>
+  </si>
+  <si>
+    <t>Instruction Register High</t>
+  </si>
+  <si>
+    <t>指令寄存器高8位</t>
+  </si>
+  <si>
+    <t>当前正在执行的指令高8位</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>Program Counter</t>
+  </si>
+  <si>
+    <t>程序计数器</t>
+  </si>
+  <si>
+    <t>用于存放下一条指令的地址(微指令单独线路控制)</t>
+  </si>
+  <si>
+    <t>微程序为32位</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>表示要读的寄存器</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>表示要写的寄存器</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1源读</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2源写</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3目标读</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4目标写</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>PC寄存器控制</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>ALU控制</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>MC控制</t>
+  </si>
+  <si>
+    <t>23-29</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>微指令周期清0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>停机</t>
+  </si>
+  <si>
+    <t>微程序地址为16位，高12位表示指令功能，低4位表示功能微指令步骤，最多16个微指令组合出一个指令功能</t>
+  </si>
+  <si>
+    <t>12位进行功能选择=操作数(1|2)+功能+寻址方式(2|4)+状态字(3)</t>
+  </si>
+  <si>
+    <t>指令寄存器虽然由高低8位共16位，但最高的4位没用</t>
+  </si>
+  <si>
+    <t>操作数类型</t>
+  </si>
+  <si>
+    <t>位含义</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>双操作</t>
+  </si>
+  <si>
+    <t>1IIIIIIIDDSS</t>
+  </si>
+  <si>
+    <t>1开头表示双操作数，7位表示功能，4位表示目标和源的寻址方式</t>
+  </si>
+  <si>
+    <t>单操作数</t>
+  </si>
+  <si>
+    <t>00IIIIIDDPPP</t>
+  </si>
+  <si>
+    <t>00开头表示单操作数，5位表示功能，2位表示目标寻址方式，3位程序状态字</t>
+  </si>
+  <si>
+    <t>无操作数</t>
+  </si>
+  <si>
+    <t>01IIIIIIIPPP</t>
+  </si>
+  <si>
+    <t>01开头表示单操作数，7位表示功能，3位程序状态字</t>
+  </si>
+  <si>
+    <t>指令为32位=(操作数*功能*寻址方式)(16位)+目标操作数(8位)+源操作数(8位)</t>
+  </si>
+  <si>
+    <t>取指令完成后PC的值加4</t>
+  </si>
+  <si>
+    <t>操作数</t>
+  </si>
+  <si>
+    <t>指令</t>
+  </si>
+  <si>
+    <t>目标操作数寻址</t>
+  </si>
+  <si>
+    <t>源操作数寻址</t>
+  </si>
+  <si>
+    <t>影响状态位</t>
+  </si>
+  <si>
+    <t>寻址方式</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>0xFE</t>
+  </si>
+  <si>
+    <t>立即寻址</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>操作数包含在指令中</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>直接寻址</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>操作数为内存地址</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>0x26</t>
+  </si>
+  <si>
+    <t>函数返回</t>
+  </si>
+  <si>
+    <t>寄存器寻址</t>
+  </si>
+  <si>
+    <t>操作数为寄存器编号，寄存器保存操作数内容</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>无条件跳转</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>寄存器间接寻址</t>
+  </si>
+  <si>
+    <t>操作数为寄存器编号，寄存器保存操作数内存地址</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>0x17</t>
+  </si>
+  <si>
+    <t>大于跳转</t>
+  </si>
+  <si>
+    <t>JGE</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>大于等于跳转</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>等于跳转</t>
+  </si>
+  <si>
+    <t>JNE</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>不等于跳转</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>0x21</t>
+  </si>
+  <si>
+    <t>小于跳转</t>
+  </si>
+  <si>
+    <t>JLE</t>
+  </si>
+  <si>
+    <t>0x22</t>
+  </si>
+  <si>
+    <t>小于等于跳转</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>0x23</t>
+  </si>
+  <si>
+    <t>数据入栈</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>0x24</t>
+  </si>
+  <si>
+    <t>数据出栈</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>0x25</t>
+  </si>
+  <si>
+    <t>函数调用</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>数据移动</t>
+  </si>
+  <si>
+    <t>01 10 11</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>ZF SF</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>IMUL</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>IDIV</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>IMOD</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>PSET</t>
+  </si>
+  <si>
+    <t>0x15</t>
   </si>
 </sst>
 </file>
@@ -778,11 +1446,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,9 +1810,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1148,317 +1977,165 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>10</v>
+      <c r="A4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>11</v>
+      <c r="A5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>100</v>
+      <c r="A6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>101</v>
+      <c r="A7" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>110</v>
+      <c r="A8" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>111</v>
+      <c r="A9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1000</v>
+      <c r="A10" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1001</v>
+      <c r="A11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1010</v>
+      <c r="A12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1011</v>
+      <c r="A13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1100</v>
+      <c r="A14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1101</v>
+      <c r="A15" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1110</v>
+      <c r="A16" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1111</v>
+      <c r="A17" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1471,16 +2148,1162 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="46.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="272">
   <si>
     <t>十进制</t>
   </si>
@@ -506,7 +506,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>微指令周期清0</t>
+    <t>指令结束</t>
   </si>
   <si>
     <t>31</t>
@@ -515,7 +515,10 @@
     <t>停机</t>
   </si>
   <si>
-    <t>微程序地址为16位，高12位表示指令功能，低4位表示功能微指令步骤，最多16个微指令组合出一个指令功能</t>
+    <t>微程序地址为16位，高12位表示指令功能，低4位表示功能微指令周期，最多16个微指令组合出一个指令功能</t>
+  </si>
+  <si>
+    <t>16个微指令中，前9个用于取指，最后至少留一个作为指令结束，所以最多只有6个周期完成指令功能</t>
   </si>
   <si>
     <t>12位进行功能选择=操作数(1|2)+功能+寻址方式(2|4)+状态字(3)</t>
@@ -1812,7 +1815,7 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2150,8 +2153,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2443,10 +2446,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2572,58 +2575,63 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
         <v>171</v>
-      </c>
-      <c r="B21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
         <v>174</v>
-      </c>
-      <c r="B22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="C24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2646,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C30"/>
+      <selection activeCell="E11" sqref="D5:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2656,10 +2664,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -2668,25 +2676,25 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L1" t="s">
         <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2694,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2717,22 +2725,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2740,22 +2748,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2763,25 +2771,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>147</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2789,16 +2797,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2806,16 +2814,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2823,16 +2831,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2840,16 +2848,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2857,16 +2865,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2874,16 +2882,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2891,16 +2899,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2908,16 +2916,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2925,16 +2933,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2942,19 +2950,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2962,22 +2970,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2985,22 +2993,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3008,22 +3016,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3031,22 +3039,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3054,22 +3062,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3077,22 +3085,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3100,22 +3108,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3123,22 +3131,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3146,22 +3154,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3169,22 +3177,22 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3192,22 +3200,22 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3215,22 +3223,22 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3238,22 +3246,22 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3261,22 +3269,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3284,22 +3292,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -503,15 +503,15 @@
     <t>未使用</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>指令结束</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>指令结束</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>停机</t>
   </si>
   <si>
@@ -548,19 +548,19 @@
     <t>单操作数</t>
   </si>
   <si>
-    <t>00IIIIIDDPPP</t>
-  </si>
-  <si>
-    <t>00开头表示单操作数，5位表示功能，2位表示目标寻址方式，3位程序状态字</t>
+    <t>01IIIIIDDPPP</t>
+  </si>
+  <si>
+    <t>01开头表示单操作数，5位表示功能，2位表示目标寻址方式，3位程序状态字</t>
   </si>
   <si>
     <t>无操作数</t>
   </si>
   <si>
-    <t>01IIIIIIIPPP</t>
-  </si>
-  <si>
-    <t>01开头表示单操作数，7位表示功能，3位程序状态字</t>
+    <t>00IIIIIIIPPP</t>
+  </si>
+  <si>
+    <t>00开头表示单操作数，7位表示功能，3位程序状态字</t>
   </si>
   <si>
     <t>指令为32位=(操作数*功能*寻址方式)(16位)+目标操作数(8位)+源操作数(8位)</t>
@@ -1968,7 +1968,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2153,8 +2153,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2448,8 +2448,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
   <si>
     <t>十进制</t>
   </si>
@@ -131,18 +131,24 @@
     <t>减法</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>奇偶标志(1的个数为偶数则PF置1)</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>无符号乘法</t>
+  </si>
+  <si>
     <t>IF</t>
   </si>
   <si>
     <t>中断标记(允许中断为1，禁止中断为0)</t>
   </si>
   <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>无符号乘法</t>
-  </si>
-  <si>
     <t>0100</t>
   </si>
   <si>
@@ -548,19 +554,19 @@
     <t>单操作数</t>
   </si>
   <si>
-    <t>01IIIIIDDPPP</t>
-  </si>
-  <si>
-    <t>01开头表示单操作数，5位表示功能，2位表示目标寻址方式，3位程序状态字</t>
+    <t>01IIIIDDPPPP</t>
+  </si>
+  <si>
+    <t>01开头表示单操作数，4位表示功能，2位表示目标寻址方式，4位程序状态字</t>
   </si>
   <si>
     <t>无操作数</t>
   </si>
   <si>
-    <t>00IIIIIIIPPP</t>
-  </si>
-  <si>
-    <t>00开头表示单操作数，7位表示功能，3位程序状态字</t>
+    <t>00IIIIIIPPPP</t>
+  </si>
+  <si>
+    <t>00开头表示单操作数，6位表示功能，4位程序状态字</t>
   </si>
   <si>
     <t>指令为32位=(操作数*功能*寻址方式)(16位)+目标操作数(8位)+源操作数(8位)</t>
@@ -590,7 +596,7 @@
     <t>NOP</t>
   </si>
   <si>
-    <t>0xFE</t>
+    <t>00000000PPPP</t>
   </si>
   <si>
     <t>立即寻址</t>
@@ -605,37 +611,37 @@
     <t>HLT</t>
   </si>
   <si>
-    <t>0xFF</t>
+    <t>00000001PPPP</t>
+  </si>
+  <si>
+    <t>寄存器寻址</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>操作数为寄存器编号，寄存器保存操作数内容</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>00000010PPPP</t>
+  </si>
+  <si>
+    <t>函数返回</t>
   </si>
   <si>
     <t>直接寻址</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>操作数为内存地址</t>
   </si>
   <si>
-    <t>RET</t>
-  </si>
-  <si>
-    <t>0x26</t>
-  </si>
-  <si>
-    <t>函数返回</t>
-  </si>
-  <si>
-    <t>寄存器寻址</t>
-  </si>
-  <si>
-    <t>操作数为寄存器编号，寄存器保存操作数内容</t>
-  </si>
-  <si>
     <t>JMP</t>
   </si>
   <si>
-    <t>0x16</t>
+    <t>010000DDPPPP</t>
   </si>
   <si>
     <t>无条件跳转</t>
@@ -653,7 +659,7 @@
     <t>JG</t>
   </si>
   <si>
-    <t>0x17</t>
+    <t>010001DDPPPP</t>
   </si>
   <si>
     <t>大于跳转</t>
@@ -662,7 +668,7 @@
     <t>JGE</t>
   </si>
   <si>
-    <t>0x18</t>
+    <t>010010DDPPPP</t>
   </si>
   <si>
     <t>大于等于跳转</t>
@@ -671,7 +677,7 @@
     <t>JE</t>
   </si>
   <si>
-    <t>0x19</t>
+    <t>010011DDPPPP</t>
   </si>
   <si>
     <t>等于跳转</t>
@@ -680,7 +686,7 @@
     <t>JNE</t>
   </si>
   <si>
-    <t>0x20</t>
+    <t>010100DDPPPP</t>
   </si>
   <si>
     <t>不等于跳转</t>
@@ -689,7 +695,7 @@
     <t>JL</t>
   </si>
   <si>
-    <t>0x21</t>
+    <t>010101DDPPPP</t>
   </si>
   <si>
     <t>小于跳转</t>
@@ -698,7 +704,7 @@
     <t>JLE</t>
   </si>
   <si>
-    <t>0x22</t>
+    <t>010110DDPPPP</t>
   </si>
   <si>
     <t>小于等于跳转</t>
@@ -707,7 +713,7 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>0x23</t>
+    <t>010111DDPPPP</t>
   </si>
   <si>
     <t>数据入栈</t>
@@ -716,7 +722,7 @@
     <t>POP</t>
   </si>
   <si>
-    <t>0x24</t>
+    <t>011000DDPPPP</t>
   </si>
   <si>
     <t>数据出栈</t>
@@ -725,7 +731,7 @@
     <t>CALL</t>
   </si>
   <si>
-    <t>0x25</t>
+    <t>011001DDPPPP</t>
   </si>
   <si>
     <t>函数调用</t>
@@ -734,7 +740,7 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>0x0</t>
+    <t>10000000DDSS</t>
   </si>
   <si>
     <t>数据移动</t>
@@ -746,7 +752,7 @@
     <t>ADD</t>
   </si>
   <si>
-    <t>0x1</t>
+    <t>10000001DDSS</t>
   </si>
   <si>
     <t>ZF SF</t>
@@ -755,85 +761,85 @@
     <t>SUB</t>
   </si>
   <si>
-    <t>0x2</t>
+    <t>10000010DDSS</t>
   </si>
   <si>
     <t>MUL</t>
   </si>
   <si>
-    <t>0x3</t>
+    <t>10000011DDSS</t>
   </si>
   <si>
     <t>IMUL</t>
   </si>
   <si>
-    <t>0x4</t>
+    <t>10000100DDSS</t>
   </si>
   <si>
     <t>DIV</t>
   </si>
   <si>
-    <t>0x5</t>
+    <t>10000101DDSS</t>
   </si>
   <si>
     <t>IDIV</t>
   </si>
   <si>
-    <t>0x6</t>
+    <t>10000110DDSS</t>
   </si>
   <si>
     <t>MOD</t>
   </si>
   <si>
-    <t>0x7</t>
+    <t>10000111DDSS</t>
   </si>
   <si>
     <t>IMOD</t>
   </si>
   <si>
-    <t>0x8</t>
+    <t>10001000DDSS</t>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
-    <t>0x9</t>
+    <t>10001001DDSS</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>0x10</t>
+    <t>10001010DDSS</t>
   </si>
   <si>
     <t>NOT</t>
   </si>
   <si>
-    <t>0x11</t>
+    <t>10001011DDSS</t>
   </si>
   <si>
     <t>XOR</t>
   </si>
   <si>
-    <t>0x12</t>
+    <t>10001100DDSS</t>
   </si>
   <si>
     <t>CMP</t>
   </si>
   <si>
-    <t>0x13</t>
+    <t>10001101DDSS</t>
   </si>
   <si>
     <t>ICMP</t>
   </si>
   <si>
-    <t>0x14</t>
+    <t>10001110DDSS</t>
   </si>
   <si>
     <t>PSET</t>
   </si>
   <si>
-    <t>0x15</t>
+    <t>10001111DDSS</t>
   </si>
 </sst>
 </file>
@@ -1465,6 +1471,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1968,7 +1977,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2037,108 +2046,117 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2172,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2166,274 +2184,274 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2448,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2461,177 +2479,177 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2645,13 +2663,14 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="D5:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="12.875" customWidth="1"/>
@@ -2664,37 +2683,37 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
       <c r="M1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2702,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2725,22 +2744,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2748,22 +2767,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2771,25 +2790,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2797,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2814,16 +2833,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2831,16 +2850,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2848,16 +2867,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2865,16 +2884,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2882,16 +2901,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2899,16 +2918,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2916,16 +2935,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2933,16 +2952,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2950,19 +2969,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2970,22 +2989,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2993,22 +3012,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3016,22 +3035,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3039,22 +3058,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3062,22 +3081,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3085,22 +3104,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3108,22 +3127,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3131,22 +3150,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3154,22 +3173,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3177,22 +3196,22 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3200,22 +3219,22 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3223,22 +3242,22 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3246,22 +3265,22 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3269,22 +3288,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3292,22 +3311,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="279">
   <si>
     <t>十进制</t>
   </si>
@@ -371,10 +371,25 @@
     <t>对RAM进行读写时要先将地址写入该寄存器</t>
   </si>
   <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>Memory Data Register</t>
+  </si>
+  <si>
+    <t>内存数据寄存器</t>
+  </si>
+  <si>
+    <t>内存之间读写数据中转用</t>
+  </si>
+  <si>
     <t>SRC</t>
   </si>
   <si>
-    <t>01011</t>
+    <t>01100</t>
   </si>
   <si>
     <t>Source Register</t>
@@ -389,7 +404,7 @@
     <t>DST</t>
   </si>
   <si>
-    <t>01100</t>
+    <t>01101</t>
   </si>
   <si>
     <t>Destination Register</t>
@@ -404,7 +419,7 @@
     <t>IRL</t>
   </si>
   <si>
-    <t>01101</t>
+    <t>01110</t>
   </si>
   <si>
     <t>Instruction Register Low</t>
@@ -419,7 +434,7 @@
     <t>IRH</t>
   </si>
   <si>
-    <t>01110</t>
+    <t>01111</t>
   </si>
   <si>
     <t>Instruction Register High</t>
@@ -2169,9 +2184,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2452,6 +2467,23 @@
       </c>
       <c r="E16" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2479,177 +2511,177 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2695,7 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2683,10 +2715,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -2695,25 +2727,25 @@
         <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
         <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2721,22 +2753,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2744,22 +2776,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2767,22 +2799,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2790,25 +2822,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2816,16 +2848,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" t="s">
         <v>214</v>
-      </c>
-      <c r="E6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2833,16 +2865,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2850,16 +2882,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2867,16 +2899,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2884,16 +2916,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2901,16 +2933,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2918,16 +2950,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2935,16 +2967,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2952,16 +2984,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2969,19 +3001,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2989,22 +3021,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3012,22 +3044,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3035,22 +3067,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3058,22 +3090,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3081,22 +3113,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3104,22 +3136,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3127,22 +3159,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3150,22 +3182,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3173,22 +3205,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3196,22 +3228,22 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3219,22 +3251,22 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3242,22 +3274,22 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3265,22 +3297,22 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3288,22 +3320,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3311,22 +3343,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="299">
   <si>
     <t>十进制</t>
   </si>
@@ -221,6 +221,30 @@
     <t>状态字设置</t>
   </si>
   <si>
+    <t>有结果的运算过程</t>
+  </si>
+  <si>
+    <t>B = SRC</t>
+  </si>
+  <si>
+    <t>DST = A op B</t>
+  </si>
+  <si>
+    <t>运算会使用AB寄存器进行辅助</t>
+  </si>
+  <si>
+    <t>需要提前把左操作数放到A寄存器中</t>
+  </si>
+  <si>
+    <t>无结果的运算过程</t>
+  </si>
+  <si>
+    <t>A = DST</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
     <t>标识</t>
   </si>
   <si>
@@ -764,6 +788,9 @@
     <t>01 10 11</t>
   </si>
   <si>
+    <t>DST=SRC</t>
+  </si>
+  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -773,18 +800,27 @@
     <t>ZF SF</t>
   </si>
   <si>
+    <t>DST=A+SRC</t>
+  </si>
+  <si>
     <t>SUB</t>
   </si>
   <si>
     <t>10000010DDSS</t>
   </si>
   <si>
+    <t>DST=A-SRC</t>
+  </si>
+  <si>
     <t>MUL</t>
   </si>
   <si>
     <t>10000011DDSS</t>
   </si>
   <si>
+    <t>DST=A*SRC</t>
+  </si>
+  <si>
     <t>IMUL</t>
   </si>
   <si>
@@ -797,6 +833,9 @@
     <t>10000101DDSS</t>
   </si>
   <si>
+    <t>DST=A/SRC</t>
+  </si>
+  <si>
     <t>IDIV</t>
   </si>
   <si>
@@ -809,6 +848,9 @@
     <t>10000111DDSS</t>
   </si>
   <si>
+    <t>DST=A%SRC</t>
+  </si>
+  <si>
     <t>IMOD</t>
   </si>
   <si>
@@ -821,30 +863,45 @@
     <t>10001001DDSS</t>
   </si>
   <si>
+    <t>DST=A&amp;SRC</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
     <t>10001010DDSS</t>
   </si>
   <si>
+    <t>DST=A|SRC</t>
+  </si>
+  <si>
     <t>NOT</t>
   </si>
   <si>
     <t>10001011DDSS</t>
   </si>
   <si>
+    <t>DST=!SRC</t>
+  </si>
+  <si>
     <t>XOR</t>
   </si>
   <si>
     <t>10001100DDSS</t>
   </si>
   <si>
+    <t>DST=A^SRC</t>
+  </si>
+  <si>
     <t>CMP</t>
   </si>
   <si>
     <t>10001101DDSS</t>
   </si>
   <si>
+    <t>PSW&lt;-DST-SRC</t>
+  </si>
+  <si>
     <t>ICMP</t>
   </si>
   <si>
@@ -855,6 +912,9 @@
   </si>
   <si>
     <t>10001111DDSS</t>
+  </si>
+  <si>
+    <t>PSW=(PSW&amp;!MSK)|(DST&amp;MSK)</t>
   </si>
 </sst>
 </file>
@@ -1989,9 +2049,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2174,6 +2234,56 @@
         <v>66</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2186,12 +2296,13 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="46.375" customWidth="1"/>
@@ -2199,291 +2310,291 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +2610,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2511,177 +2622,177 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2817,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
@@ -2715,37 +2826,37 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2753,22 +2864,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2776,22 +2887,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2799,22 +2910,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2822,25 +2933,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2848,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2865,16 +2976,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
         <v>222</v>
-      </c>
-      <c r="E7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2882,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2899,16 +3010,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2916,16 +3027,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2933,16 +3044,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2950,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2967,16 +3078,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2984,381 +3095,429 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>222</v>
+      </c>
+      <c r="H15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>222</v>
+      </c>
+      <c r="H30" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="302">
   <si>
     <t>十进制</t>
   </si>
@@ -98,6 +98,9 @@
     <t>操作码</t>
   </si>
   <si>
+    <t>保存结果</t>
+  </si>
+  <si>
     <t>PSW</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>加法</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
     <t>无符号比较</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>1110</t>
   </si>
   <si>
@@ -221,7 +230,7 @@
     <t>状态字设置</t>
   </si>
   <si>
-    <t>有结果的运算过程</t>
+    <t>保存结果的运算过程</t>
   </si>
   <si>
     <t>B = SRC</t>
@@ -236,7 +245,7 @@
     <t>需要提前把左操作数放到A寄存器中</t>
   </si>
   <si>
-    <t>无结果的运算过程</t>
+    <t>不保存结果的运算过程</t>
   </si>
   <si>
     <t>A = DST</t>
@@ -927,10 +936,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1388,10 +1404,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1400,34 +1416,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,102 +1452,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1934,7 +1953,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1964,7 +1983,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -2027,7 +2046,7 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
@@ -2051,7 +2070,7 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2066,222 +2085,270 @@
       <c r="A1" t="s">
         <v>25</v>
       </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
+      <c r="A2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
+      <c r="A3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
+      <c r="A5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2363,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2310,291 +2377,291 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2615,184 +2682,184 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>155</v>
+      <c r="A1" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>156</v>
+      <c r="A2" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>158</v>
+      <c r="A3" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>160</v>
+      <c r="A4" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>162</v>
+      <c r="A5" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>164</v>
+      <c r="A6" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>166</v>
+      <c r="A7" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>168</v>
+      <c r="A8" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>170</v>
+      <c r="A9" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>172</v>
+      <c r="A10" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>174</v>
+      <c r="A11" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>176</v>
+      <c r="A12" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>178</v>
+      <c r="A13" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>180</v>
+      <c r="A16" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>181</v>
+      <c r="A17" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>182</v>
+      <c r="A18" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>183</v>
+      <c r="A19" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>184</v>
+      <c r="A21" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>187</v>
+      <c r="A22" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>190</v>
+      <c r="A23" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>193</v>
+      <c r="A24" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>196</v>
+      <c r="A28" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>197</v>
+      <c r="A29" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2826,37 +2893,37 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2864,22 +2931,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2887,224 +2954,224 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="M3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>215</v>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>160</v>
+        <v>220</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>219</v>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>162</v>
+        <v>226</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
         <v>225</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>228</v>
+      <c r="B7" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>231</v>
+      <c r="B8" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>234</v>
+      <c r="B9" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>237</v>
+      <c r="B10" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>240</v>
+      <c r="B11" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>243</v>
+      <c r="B12" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>246</v>
+      <c r="B13" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>249</v>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3112,22 +3179,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3135,25 +3202,25 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
         <v>258</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>255</v>
-      </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3161,25 +3228,25 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" t="s">
         <v>262</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" t="s">
-        <v>259</v>
-      </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3187,25 +3254,25 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3213,25 +3280,25 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3239,25 +3306,25 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3265,25 +3332,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3291,25 +3358,25 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3317,25 +3384,25 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H23" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3343,25 +3410,25 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H24" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3369,25 +3436,25 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3395,25 +3462,25 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3421,25 +3488,25 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H27" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3447,25 +3514,25 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H28" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3473,25 +3540,25 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3499,25 +3566,25 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数码管" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="307">
   <si>
     <t>十进制</t>
   </si>
@@ -551,7 +551,13 @@
     <t>MC控制</t>
   </si>
   <si>
-    <t>23-29</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>字长读取</t>
+  </si>
+  <si>
+    <t>24-29</t>
   </si>
   <si>
     <t>未使用</t>
@@ -776,10 +782,22 @@
     <t>数据出栈</t>
   </si>
   <si>
+    <t>01 10 11</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>011001DDPPPP</t>
+  </si>
+  <si>
+    <t>字长获取</t>
+  </si>
+  <si>
     <t>CALL</t>
   </si>
   <si>
-    <t>011001DDPPPP</t>
+    <t>011010DDPPPP</t>
   </si>
   <si>
     <t>函数调用</t>
@@ -792,9 +810,6 @@
   </si>
   <si>
     <t>数据移动</t>
-  </si>
-  <si>
-    <t>01 10 11</t>
   </si>
   <si>
     <t>DST=SRC</t>
@@ -936,7 +951,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +962,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1404,10 +1425,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,34 +1437,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1455,98 +1473,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,6 +1575,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1953,7 +1977,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1983,7 +2007,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -2046,7 +2070,7 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
@@ -2093,7 +2117,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
@@ -2110,7 +2134,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
@@ -2130,7 +2154,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
@@ -2150,7 +2174,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
@@ -2170,7 +2194,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -2181,7 +2205,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
@@ -2192,7 +2216,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
@@ -2203,7 +2227,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
@@ -2214,7 +2238,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
@@ -2225,7 +2249,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
@@ -2236,7 +2260,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B12" t="s">
@@ -2247,7 +2271,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
@@ -2258,7 +2282,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
@@ -2269,7 +2293,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
@@ -2280,7 +2304,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B16" t="s">
@@ -2291,7 +2315,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B17" t="s">
@@ -2363,7 +2387,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2396,7 +2420,7 @@
       <c r="A2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C2" t="s">
@@ -2413,7 +2437,7 @@
       <c r="A3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C3" t="s">
@@ -2430,7 +2454,7 @@
       <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C4" t="s">
@@ -2447,7 +2471,7 @@
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C5" t="s">
@@ -2464,7 +2488,7 @@
       <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C6" t="s">
@@ -2481,7 +2505,7 @@
       <c r="A7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C7" t="s">
@@ -2498,7 +2522,7 @@
       <c r="A8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C8" t="s">
@@ -2515,7 +2539,7 @@
       <c r="A9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C9" t="s">
@@ -2532,7 +2556,7 @@
       <c r="A10" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C10" t="s">
@@ -2549,7 +2573,7 @@
       <c r="A11" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C11" t="s">
@@ -2566,7 +2590,7 @@
       <c r="A12" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C12" t="s">
@@ -2583,7 +2607,7 @@
       <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C13" t="s">
@@ -2600,7 +2624,7 @@
       <c r="A14" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C14" t="s">
@@ -2617,7 +2641,7 @@
       <c r="A15" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C15" t="s">
@@ -2634,7 +2658,7 @@
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C16" t="s">
@@ -2651,7 +2675,7 @@
       <c r="A17" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C17" t="s">
@@ -2674,7 +2698,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2682,18 +2706,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B2" t="s">
@@ -2701,7 +2725,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B3" t="s">
@@ -2709,7 +2733,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B4" t="s">
@@ -2717,7 +2741,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B5" t="s">
@@ -2725,7 +2749,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B6" t="s">
@@ -2733,7 +2757,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B7" t="s">
@@ -2741,7 +2765,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B8" t="s">
@@ -2749,7 +2773,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B9" t="s">
@@ -2757,7 +2781,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B10" t="s">
@@ -2765,7 +2789,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B11" t="s">
@@ -2773,7 +2797,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B12" t="s">
@@ -2781,85 +2805,93 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>183</v>
       </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>184</v>
+      <c r="A17" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>185</v>
+      <c r="A18" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" t="s">
         <v>190</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>191</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="B23" t="s">
         <v>193</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>194</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="B24" t="s">
         <v>196</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>197</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="B25" t="s">
         <v>199</v>
       </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>200</v>
+      <c r="A29" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2871,9 +2903,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2893,10 +2925,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
         <v>79</v>
@@ -2905,25 +2937,25 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s">
         <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2931,22 +2963,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2954,22 +2986,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="M3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2977,150 +3009,150 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>163</v>
       </c>
       <c r="M4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>222</v>
+      <c r="B5" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>228</v>
+      <c r="B6" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>231</v>
+      <c r="B7" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>234</v>
+      <c r="B8" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>237</v>
+      <c r="B9" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>240</v>
+      <c r="B10" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
+      <c r="B11" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3128,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3145,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3162,39 +3194,33 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" t="s">
         <v>254</v>
       </c>
-      <c r="E14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>255</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H15" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3202,25 +3228,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3228,25 +3251,25 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G17" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3254,25 +3277,25 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G18" t="s">
-        <v>262</v>
-      </c>
       <c r="H18" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3280,25 +3303,25 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3306,22 +3329,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H20" t="s">
         <v>274</v>
@@ -3332,25 +3355,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3358,22 +3381,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H22" t="s">
         <v>279</v>
@@ -3384,25 +3407,25 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H23" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3410,22 +3433,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H24" t="s">
         <v>284</v>
@@ -3436,25 +3459,25 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H25" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3462,25 +3485,25 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3488,25 +3511,25 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3514,25 +3537,25 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3540,25 +3563,25 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H29" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3566,25 +3589,51 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
